--- a/TestCasesUKGCommon/martin b ORIG.xlsx
+++ b/TestCasesUKGCommon/martin b ORIG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="292">
   <si>
     <t>EMPLID</t>
   </si>
@@ -112,7 +112,7 @@
     <t>12.48</t>
   </si>
   <si>
-    <t>NEMHNND,40,511,STD,DED,CIN3</t>
+    <t xml:space="preserve"> |  NEMHNND,40,511,STD,DED,CIN3</t>
   </si>
   <si>
     <t>04/10/2023</t>
@@ -148,6 +148,9 @@
     <t>1.25</t>
   </si>
   <si>
+    <t xml:space="preserve"> | Att-Excused  </t>
+  </si>
+  <si>
     <t>04/11/2023 06:15</t>
   </si>
   <si>
@@ -163,6 +166,9 @@
     <t>10.00</t>
   </si>
   <si>
+    <t xml:space="preserve"> | Att-Excused Weather  </t>
+  </si>
+  <si>
     <t>04/14/2023</t>
   </si>
   <si>
@@ -178,7 +184,7 @@
     <t>3.23</t>
   </si>
   <si>
-    <t>CC:3104-3100-91610-0-0-0-0-0NEMHNND,40,511,STD,DED,CIN3</t>
+    <t xml:space="preserve"> | CC:3104-3100-91610-0-0-0-0-0 |  NEMHNND,40,511,STD,DED,CIN3</t>
   </si>
   <si>
     <t>10.25</t>
@@ -247,7 +253,7 @@
     <t>0.50</t>
   </si>
   <si>
-    <t>1MHNND,40,511,STD,DED,TRBask</t>
+    <t xml:space="preserve"> |  1MHNND,40,511,STD,DED,TRBask</t>
   </si>
   <si>
     <t>04/11/2023 18:44</t>
@@ -325,7 +331,7 @@
     <t>04/09/2023 06:55</t>
   </si>
   <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-CLINICALDECISIONUNIT2W/RNAGRN,00,NON,DED,SNN,N</t>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-CLINICALDECISIONUNIT2W/RN |  AGRN,00,NON,DED,SNN,N</t>
   </si>
   <si>
     <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
@@ -337,7 +343,7 @@
     <t>04/10/2023 06:53</t>
   </si>
   <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-SURGICALUROLOGY4NE/RNAGRN,00,NON,DED,SNN,N</t>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-SURGICALUROLOGY4NE/RN |  AGRN,00,NON,DED,SNN,N</t>
   </si>
   <si>
     <t>3100-3100-31432</t>
@@ -355,7 +361,7 @@
     <t>04/16/2023 06:52</t>
   </si>
   <si>
-    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-8THFLOOR/RNAGRN,00,NON,DED,SNN,N</t>
+    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-8THFLOOR/RN |  AGRN,00,NON,DED,SNN,N</t>
   </si>
   <si>
     <t>04/17/2023 06:56</t>
@@ -376,7 +382,7 @@
     <t>04/10/2023 19:00</t>
   </si>
   <si>
-    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-3RDFLOOR/RNAGRN,00,NON,DED,SNN,N</t>
+    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-3RDFLOOR/RN |  AGRN,00,NON,DED,SNN,N</t>
   </si>
   <si>
     <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-SURGICALUROLOGY4NE/RN|3100-3100-31427</t>
@@ -388,7 +394,7 @@
     <t>04/11/2023 19:11</t>
   </si>
   <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-PCU5NW/RNAGRN,00,NON,DED,SNN,N</t>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-PCU5NW/RN |  AGRN,00,NON,DED,SNN,N</t>
   </si>
   <si>
     <t>04/13/2023 13:00</t>
@@ -397,7 +403,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>1M1FLA,40,NON,STD,DED,TRSystems</t>
+    <t xml:space="preserve"> |  1M1FLA,40,NON,STD,DED,TRSystems</t>
   </si>
   <si>
     <t>04/15/2023 18:56</t>
@@ -415,7 +421,7 @@
     <t>04/22/2023 18:55</t>
   </si>
   <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MEDICALRENAL4NW/RNAGRN,00,NON,DED,SNN,N</t>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MEDICALRENAL4NW/RN |  AGRN,00,NON,DED,SNN,N</t>
   </si>
   <si>
     <t>HUGHES, ALEXIS</t>
@@ -436,7 +442,7 @@
     <t>04/18/2023 18:53</t>
   </si>
   <si>
-    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-TELE2A-2C/RNAGRN,00,NON,DED,SNN,N</t>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-TELE2A-2C/RN |  AGRN,00,NON,DED,SNN,N</t>
   </si>
   <si>
     <t>04/19/2023 18:54</t>
@@ -478,7 +484,7 @@
     <t>04/08/2023 18:59</t>
   </si>
   <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RNAGRN,00,NON,DED,SNN,N</t>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN |  AGRN,00,NON,DED,SNN,N</t>
   </si>
   <si>
     <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-ORTHOPEDICS3A/RN|3101-3101-31436</t>
@@ -496,13 +502,13 @@
     <t>04/14/2023 18:53</t>
   </si>
   <si>
-    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-CDU3B/RNAtt-ExcusedAGRN,00,NON,DED,SNN,N</t>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-CDU3B/RN | Att-Excused AGRN,00,NON,DED,SNN,N</t>
   </si>
   <si>
     <t>3101-3101-31438</t>
   </si>
   <si>
-    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-MED-TELE3C/RNAtt-ExcusedAGRN,00,NON,DED,SNN,N</t>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-MED-TELE3C/RN | Att-Excused AGRN,00,NON,DED,SNN,N</t>
   </si>
   <si>
     <t>04/19/2023 18:55</t>
@@ -511,7 +517,7 @@
     <t>04/20/2023 18:53</t>
   </si>
   <si>
-    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-TELE2A-2C/RNAtt-ExcusedAGRN,00,NON,DED,SNN,N</t>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-TELE2A-2C/RN | Att-Excused AGRN,00,NON,DED,SNN,N</t>
   </si>
   <si>
     <t>LEVINE-LIBERNINI, ASHLEY</t>
@@ -604,6 +610,9 @@
     <t>04/18/2023 07:38</t>
   </si>
   <si>
+    <t xml:space="preserve"> | Att-Late In  </t>
+  </si>
+  <si>
     <t>04/18/2023 13:26</t>
   </si>
   <si>
@@ -640,7 +649,7 @@
     <t>04/22/2023 10:05</t>
   </si>
   <si>
-    <t>Att-ApprovedOTNEMHNND,40,511,STD,DED,CIN3</t>
+    <t xml:space="preserve"> | Att-Approved OT NEMHNND,40,511,STD,DED,CIN3</t>
   </si>
   <si>
     <t>MICHEL, ISNARA</t>
@@ -652,7 +661,7 @@
     <t>04/12/2023 06:44</t>
   </si>
   <si>
-    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-CDU3B/RNAGRN,00,NON,DED,SNN,N</t>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-CDU3B/RN |  AGRN,00,NON,DED,SNN,N</t>
   </si>
   <si>
     <t>04/13/2023 07:00</t>
@@ -694,6 +703,9 @@
     <t>14.50</t>
   </si>
   <si>
+    <t xml:space="preserve"> | Att-Excused1MHNND, | 40,511,STD,DED,TRSystems</t>
+  </si>
+  <si>
     <t>04/14/2023 19:15</t>
   </si>
   <si>
@@ -748,7 +760,7 @@
     <t>04/13/2023 12:55</t>
   </si>
   <si>
-    <t>Att-ForgottoPunch1M1FLA,40,NON,STD,DED,TRSystems</t>
+    <t xml:space="preserve"> | Att-Forgot to Punch 1M1FLA,40,NON,STD,DED,TRSystems</t>
   </si>
   <si>
     <t>3100-3100-31426</t>
@@ -757,7 +769,7 @@
     <t>04/17/2023 18:53</t>
   </si>
   <si>
-    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-MED-TELE3C/RNAGRN,00,NON,DED,SNN,N</t>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-MED-TELE3C/RN |  AGRN,00,NON,DED,SNN,N</t>
   </si>
   <si>
     <t>04/22/2023 18:56</t>
@@ -796,7 +808,7 @@
     <t>04/22/2023 18:51</t>
   </si>
   <si>
-    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-ICU/RNAGRN,00,NON,DED,SNN,N</t>
+    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-ICU/RN |  AGRN,00,NON,DED,SNN,N</t>
   </si>
   <si>
     <t>THOMANY, PAULA</t>
@@ -805,12 +817,15 @@
     <t>04/11/2023 07:59</t>
   </si>
   <si>
-    <t>Class1M1FLA,40,NON,STD,DED,TRSystems</t>
+    <t xml:space="preserve"> | Class 1M1FLA,40,NON,STD,DED,TRSystems</t>
   </si>
   <si>
     <t>04/14/2023 18:45</t>
   </si>
   <si>
+    <t xml:space="preserve"> | Att-Forgot to Punch, Att-Forgot to </t>
+  </si>
+  <si>
     <t>04/18/2023 19:06</t>
   </si>
   <si>
@@ -820,7 +835,7 @@
     <t>04/19/2023 18:57</t>
   </si>
   <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-ONCOLOGY3W/RNAGRN,00,NON,DED,SNN,N</t>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-ONCOLOGY3W/RN |  AGRN,00,NON,DED,SNN,N</t>
   </si>
   <si>
     <t>04/19/2023 22:00</t>
@@ -1570,7 +1585,9 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="S8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1591,12 +1608,12 @@
         <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1616,7 +1633,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -1647,7 +1664,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
@@ -1657,12 +1674,12 @@
         <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1671,7 +1688,9 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="R11" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="S11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1682,7 +1701,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -1692,12 +1711,12 @@
         <v>29</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1717,22 +1736,22 @@
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1742,7 +1761,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>25</v>
@@ -1754,7 +1773,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -1764,12 +1783,12 @@
         <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1789,7 +1808,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
@@ -1799,7 +1818,7 @@
         <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1824,7 +1843,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
@@ -1834,7 +1853,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1859,7 +1878,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
@@ -1869,7 +1888,7 @@
         <v>29</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1894,7 +1913,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
@@ -1904,7 +1923,7 @@
         <v>22</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1929,7 +1948,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
@@ -1939,12 +1958,12 @@
         <v>29</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1964,7 +1983,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
@@ -1974,7 +1993,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1999,7 +2018,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
@@ -2009,12 +2028,12 @@
         <v>29</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -2034,7 +2053,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
@@ -2044,12 +2063,12 @@
         <v>29</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2068,20 +2087,20 @@
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2097,31 +2116,31 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -2131,34 +2150,34 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -2169,26 +2188,26 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -2204,31 +2223,31 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -2239,31 +2258,31 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -2274,31 +2293,31 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -2309,31 +2328,31 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -2344,31 +2363,31 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -2379,31 +2398,31 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -2414,31 +2433,31 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -2449,31 +2468,31 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -2484,26 +2503,26 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2519,31 +2538,31 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -2554,31 +2573,31 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -2589,26 +2608,26 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -2623,29 +2642,29 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -2660,34 +2679,34 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -2698,31 +2717,31 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -2732,34 +2751,34 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -2770,31 +2789,31 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -2804,34 +2823,34 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -2841,29 +2860,29 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -2878,34 +2897,34 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -2915,34 +2934,34 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -2953,31 +2972,31 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -2988,31 +3007,31 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -3023,31 +3042,31 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -3057,34 +3076,34 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -3095,31 +3114,31 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -3130,31 +3149,31 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -3165,26 +3184,26 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -3199,34 +3218,34 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -3237,31 +3256,31 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -3272,31 +3291,31 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -3307,26 +3326,26 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -3342,26 +3361,26 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -3377,31 +3396,31 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -3412,31 +3431,31 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -3447,31 +3466,31 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -3482,31 +3501,31 @@
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -3517,13 +3536,13 @@
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>20</v>
@@ -3534,7 +3553,7 @@
         <v>29</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -3549,34 +3568,34 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -3585,33 +3604,35 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
+      <c r="R65" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="S65" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -3621,34 +3642,34 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -3658,34 +3679,34 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -3695,34 +3716,34 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -3732,34 +3753,34 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -3769,34 +3790,34 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -3807,31 +3828,31 @@
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
       <c r="S71" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -3842,31 +3863,31 @@
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
       <c r="S72" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -3877,26 +3898,26 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -3912,31 +3933,31 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
       <c r="S74" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
@@ -3947,31 +3968,31 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -3982,26 +4003,26 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
       <c r="S76" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -4017,26 +4038,26 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
       <c r="S77" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -4050,31 +4071,31 @@
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
       <c r="S78" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -4085,26 +4106,26 @@
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
       <c r="S79" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -4118,31 +4139,31 @@
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
       <c r="S80" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -4153,31 +4174,31 @@
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -4188,26 +4209,26 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -4221,31 +4242,31 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
       <c r="S83" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -4256,31 +4277,31 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -4291,31 +4312,31 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
       <c r="S85" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -4328,26 +4349,26 @@
         <v>32</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -4361,31 +4382,31 @@
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -4396,31 +4417,31 @@
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
       <c r="S88" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -4431,26 +4452,26 @@
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -4464,31 +4485,31 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
       <c r="S90" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
@@ -4499,26 +4520,26 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
       <c r="S91" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -4530,33 +4551,35 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
+      <c r="R92" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="S92" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
@@ -4567,31 +4590,31 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
       <c r="S93" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
@@ -4602,26 +4625,26 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
       <c r="S94" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -4635,31 +4658,31 @@
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
       <c r="S95" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
@@ -4670,26 +4693,26 @@
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
       <c r="S96" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -4703,31 +4726,31 @@
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
       <c r="S97" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
@@ -4738,31 +4761,31 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
       <c r="S98" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
@@ -4773,31 +4796,31 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
       <c r="S99" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
@@ -4808,31 +4831,31 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
       <c r="S100" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
@@ -4842,34 +4865,34 @@
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
@@ -4880,31 +4903,31 @@
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
       <c r="S102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
@@ -4914,29 +4937,29 @@
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -4952,31 +4975,31 @@
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
       <c r="S104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
@@ -4987,31 +5010,31 @@
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
       <c r="S105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
@@ -5022,31 +5045,31 @@
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
       <c r="S106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
@@ -5057,31 +5080,31 @@
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
       <c r="S107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
@@ -5092,26 +5115,26 @@
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
       <c r="S108" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -5127,31 +5150,31 @@
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
       <c r="S109" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
@@ -5162,26 +5185,26 @@
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
       <c r="S110" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -5193,33 +5216,35 @@
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
+      <c r="R111" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="S111" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
@@ -5228,28 +5253,30 @@
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
+      <c r="R112" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="S112" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -5263,28 +5290,30 @@
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
-      <c r="R113" s="2"/>
+      <c r="R113" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="S113" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -5298,33 +5327,35 @@
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
+      <c r="R114" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="S114" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
@@ -5335,26 +5366,26 @@
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
       <c r="S115" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -5370,31 +5401,31 @@
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
       <c r="S116" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
@@ -5404,34 +5435,34 @@
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
       <c r="R117" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
@@ -5441,34 +5472,34 @@
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
       <c r="R118" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
@@ -5478,34 +5509,34 @@
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
       <c r="R119" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
@@ -5516,31 +5547,31 @@
       <c r="Q120" s="2"/>
       <c r="R120" s="2"/>
       <c r="S120" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -5551,31 +5582,31 @@
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
       <c r="S121" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
@@ -5586,31 +5617,31 @@
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
       <c r="S122" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
@@ -5620,29 +5651,29 @@
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
       <c r="R123" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -5658,31 +5689,31 @@
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
       <c r="S124" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
@@ -5691,28 +5722,30 @@
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
-      <c r="R125" s="2"/>
+      <c r="R125" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="S125" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -5727,29 +5760,29 @@
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
       <c r="R126" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="S126" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -5764,29 +5797,29 @@
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
       <c r="R127" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="S127" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -5802,31 +5835,31 @@
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
       <c r="S128" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
@@ -5837,26 +5870,26 @@
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
       <c r="S129" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="2"/>
       <c r="B130" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -5872,26 +5905,26 @@
       <c r="Q130" s="2"/>
       <c r="R130" s="2"/>
       <c r="S130" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -5907,31 +5940,31 @@
       <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
       <c r="S131" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
@@ -5942,26 +5975,26 @@
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
       <c r="S132" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -5977,31 +6010,31 @@
       <c r="Q133" s="2"/>
       <c r="R133" s="2"/>
       <c r="S133" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
@@ -6011,34 +6044,34 @@
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
       <c r="R134" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="S134" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
@@ -6048,34 +6081,34 @@
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
       <c r="R135" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
@@ -6085,34 +6118,34 @@
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
       <c r="R136" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
@@ -6123,26 +6156,26 @@
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
       <c r="S137" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
@@ -6157,34 +6190,34 @@
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
       <c r="R138" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
@@ -6195,31 +6228,31 @@
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
       <c r="S139" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
@@ -6230,31 +6263,31 @@
       <c r="Q140" s="2"/>
       <c r="R140" s="2"/>
       <c r="S140" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="2"/>
       <c r="B141" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
@@ -6264,34 +6297,34 @@
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
       <c r="R141" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="2"/>
       <c r="B142" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
@@ -6302,31 +6335,31 @@
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
       <c r="S142" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="2"/>
       <c r="B143" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
@@ -6337,31 +6370,31 @@
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
       <c r="S143" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="2"/>
       <c r="B144" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
@@ -6371,34 +6404,34 @@
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
       <c r="R144" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="2"/>
       <c r="B145" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
@@ -6408,29 +6441,29 @@
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>
       <c r="R145" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="S145" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="2"/>
       <c r="B146" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -6446,31 +6479,31 @@
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
       <c r="S146" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="2"/>
       <c r="B147" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
@@ -6481,31 +6514,31 @@
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
       <c r="S147" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="2"/>
       <c r="B148" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
@@ -6514,33 +6547,35 @@
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
       <c r="Q148" s="2"/>
-      <c r="R148" s="2"/>
+      <c r="R148" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="S148" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="2"/>
       <c r="B149" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
@@ -6551,26 +6586,26 @@
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
       <c r="S149" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="2"/>
       <c r="B150" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
@@ -6583,34 +6618,34 @@
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
       <c r="R150" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="S150" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="2"/>
       <c r="B151" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
       <c r="J151" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
@@ -6620,34 +6655,34 @@
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
       <c r="R151" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S151" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="2"/>
       <c r="B152" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
       <c r="J152" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
@@ -6658,31 +6693,31 @@
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
       <c r="S152" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="2"/>
       <c r="B153" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
@@ -6692,29 +6727,29 @@
       <c r="P153" s="2"/>
       <c r="Q153" s="2"/>
       <c r="R153" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S153" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
@@ -6728,33 +6763,35 @@
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
       <c r="Q154" s="2"/>
-      <c r="R154" s="2"/>
+      <c r="R154" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="S154" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="2"/>
       <c r="B155" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
@@ -6764,34 +6801,34 @@
       <c r="P155" s="2"/>
       <c r="Q155" s="2"/>
       <c r="R155" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S155" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="2"/>
       <c r="B156" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
@@ -6801,34 +6838,34 @@
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
       <c r="R156" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="S156" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="2"/>
       <c r="B157" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
@@ -6838,34 +6875,34 @@
       <c r="P157" s="2"/>
       <c r="Q157" s="2"/>
       <c r="R157" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="S157" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="2"/>
       <c r="B158" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
@@ -6875,29 +6912,29 @@
       <c r="P158" s="2"/>
       <c r="Q158" s="2"/>
       <c r="R158" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="S158" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="2"/>
       <c r="B159" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
@@ -6913,31 +6950,31 @@
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
       <c r="S159" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
       <c r="J160" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
@@ -6948,31 +6985,31 @@
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
       <c r="S160" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
@@ -6983,31 +7020,31 @@
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
       <c r="S161" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
@@ -7018,31 +7055,31 @@
       <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
       <c r="S162" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
       <c r="J163" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
@@ -7053,31 +7090,31 @@
       <c r="Q163" s="2"/>
       <c r="R163" s="2"/>
       <c r="S163" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
@@ -7088,31 +7125,31 @@
       <c r="Q164" s="2"/>
       <c r="R164" s="2"/>
       <c r="S164" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="2"/>
       <c r="B165" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
@@ -7123,7 +7160,7 @@
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
       <c r="S165" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
